--- a/data/figX_data.xlsx
+++ b/data/figX_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4861193-0032-C948-BBB8-8B39E6811536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AEA4F5-43CC-9341-A674-BCF11AE63C40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{48BCBCA2-0A9F-2242-845F-06222AF347C6}"/>
+    <workbookView xWindow="27600" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{48BCBCA2-0A9F-2242-845F-06222AF347C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -70,13 +59,19 @@
   </si>
   <si>
     <t>Contemporary distribution</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Trading</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,13 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956CE8B-0A55-B140-97E2-2D65452590DA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -455,7 +450,7 @@
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -483,7 +478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -497,7 +492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -511,7 +506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -525,7 +520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -539,7 +534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -553,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -563,8 +558,11 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -573,6 +571,23 @@
       </c>
       <c r="C9" t="s">
         <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -582,18 +597,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C5C2CA-A1BF-D143-9C7E-31FDC7D6D41A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -604,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -615,7 +630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -626,25 +641,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>70</v>
       </c>
     </row>
